--- a/Schedule Calculator Pro/bin/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328B53C0-03F0-4AC8-A82F-E58F97359F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB93DA71-DA86-4118-A1BA-559847ABA3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{44833D93-5865-4618-B2CD-FC381B499FF8}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31AC94AC-6827-4F13-A126-5C02A924C628}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937477F0-58D6-4AB4-9DFE-17F0B9D80299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EDF72-55AA-494A-951C-23A9E7B4FF84}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>717</v>
+        <v>217</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1122,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="M3" s="11">
-        <v>412</v>
+        <v>216</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>14</v>
@@ -1149,7 +1149,7 @@
         <v>61</v>
       </c>
       <c r="V3" s="12">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>319</v>
+        <v>152</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>5</v>
@@ -1243,7 +1243,7 @@
         <v>66</v>
       </c>
       <c r="P4" s="13">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>75</v>
@@ -1252,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="13">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>88</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>5</v>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="11">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>78</v>
@@ -1554,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="S7" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>90</v>
@@ -1563,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>213</v>
+        <v>410</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>56</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>403</v>
+        <v>154</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>56</v>
@@ -1769,7 +1769,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="15">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>60</v>
@@ -1787,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="16">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
-        <v>106</v>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>217</v>
+        <v>416</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>58</v>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>5</v>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11">
-        <v>211</v>
+        <v>410</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>52</v>
@@ -2315,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="12">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="13">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -2382,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2503,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="13">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>62</v>
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2673,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="11">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>27</v>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="11">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>44</v>
@@ -2691,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="J18" s="11">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2783,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="13">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2859,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="13">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>

--- a/Schedule Calculator Pro/bin/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB93DA71-DA86-4118-A1BA-559847ABA3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0395F2-E37E-4C99-8643-2F19BFAE143D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31AC94AC-6827-4F13-A126-5C02A924C628}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6364BDE3-B953-45C1-86B0-98806DAD1DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -48,6 +48,36 @@
     <t>Конишев В.С.</t>
   </si>
   <si>
+    <t>Іноземна мова (за проф. спрямуванням)</t>
+  </si>
+  <si>
+    <t>Семенюк Л.М.</t>
+  </si>
+  <si>
+    <t>Електроніка і схемотехніка</t>
+  </si>
+  <si>
+    <t>Кузьомко В.І.</t>
+  </si>
+  <si>
+    <t>Основи метрології і засоби технічного контролю</t>
+  </si>
+  <si>
+    <t>Автоматизований електропривод</t>
+  </si>
+  <si>
+    <t>Основи програмування та програмне забезпечення</t>
+  </si>
+  <si>
+    <t>Фуріхата Д.В.</t>
+  </si>
+  <si>
+    <t>Охорона праці в галузі</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
     <t>Фізична культура</t>
   </si>
   <si>
@@ -57,36 +87,6 @@
     <t>с.з.</t>
   </si>
   <si>
-    <t>Електроніка і схемотехніка</t>
-  </si>
-  <si>
-    <t>Кузьомко В.І.</t>
-  </si>
-  <si>
-    <t>Основи метрології і засоби технічного контролю</t>
-  </si>
-  <si>
-    <t>Автоматизований електропривод</t>
-  </si>
-  <si>
-    <t>Іноземна мова (за проф. спрямуванням)</t>
-  </si>
-  <si>
-    <t>Семенюк Л.М.</t>
-  </si>
-  <si>
-    <t>Охорона праці в галузі</t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
-  </si>
-  <si>
-    <t>Основи програмування та програмне забезпечення</t>
-  </si>
-  <si>
-    <t>Фуріхата Д.В.</t>
-  </si>
-  <si>
     <t>Ел31</t>
   </si>
   <si>
@@ -165,15 +165,15 @@
     <t>Шуляр Т.М.</t>
   </si>
   <si>
+    <t>Основи метрології, стандартизації та взаємин</t>
+  </si>
+  <si>
     <t>Теорія імовірності та математична статистика</t>
   </si>
   <si>
     <t>Сорочиньска О.В.</t>
   </si>
   <si>
-    <t>Основи метрології, стандартизації та взаємин</t>
-  </si>
-  <si>
     <t>Алгоритми і методи обчислення</t>
   </si>
   <si>
@@ -195,30 +195,30 @@
     <t>Ковальчук О.В.</t>
   </si>
   <si>
+    <t>Обладнання галузі</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Основи електротехніки</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Соціологія</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основи філософських знань </t>
   </si>
   <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
-    <t>Обладнання галузі</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Основи електротехніки</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Соціологія</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
     <t>Сушіння і захист деревини</t>
   </si>
   <si>
@@ -282,13 +282,13 @@
     <t>Політологія</t>
   </si>
   <si>
+    <t xml:space="preserve">Сімейне право </t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
     <t>Методика і технологія соціальної роботи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сімейне право </t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
   </si>
   <si>
     <t xml:space="preserve">Основи соціальної педагогики </t>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EDF72-55AA-494A-951C-23A9E7B4FF84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C709E920-423D-4FF4-8609-1B3B22F0AEA6}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="11">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>29</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>217</v>
+        <v>405</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1122,10 +1122,10 @@
         <v>51</v>
       </c>
       <c r="M3" s="11">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
@@ -1143,13 +1143,13 @@
         <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V3" s="12">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,25 +1216,25 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>65</v>
@@ -1243,7 +1243,7 @@
         <v>66</v>
       </c>
       <c r="P4" s="13">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>75</v>
@@ -1328,16 +1328,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>52</v>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1518,16 +1518,16 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>54</v>
@@ -1554,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="S7" s="11">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>90</v>
@@ -1620,8 +1620,8 @@
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
+      <c r="D8" s="13">
+        <v>317</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="13">
         <v>412</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P8" s="13">
         <v>413</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1727,13 +1727,13 @@
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>305</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>24</v>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,31 +1751,31 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15">
         <v>412</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P9" s="15">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="15">
         <v>301</v>
@@ -1841,10 +1841,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="D10" s="11">
         <v>311</v>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
+      <c r="G10" s="11">
+        <v>117</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1877,7 +1877,7 @@
         <v>412</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>68</v>
@@ -1889,7 +1889,7 @@
         <v>82</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S10" s="11">
         <v>301</v>
@@ -1901,7 +1901,7 @@
         <v>89</v>
       </c>
       <c r="V10" s="12">
-        <v>410</v>
+        <v>104</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1953,13 +1953,13 @@
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="13">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,31 +1977,31 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="13">
-        <v>412</v>
+        <v>32</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="P11" s="13">
+        <v>413</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="S11" s="13">
         <v>301</v>
@@ -2013,7 +2013,7 @@
         <v>89</v>
       </c>
       <c r="V11" s="14">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -2068,52 +2068,52 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J12" s="13">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="M12" s="13">
+        <v>412</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="P12" s="13">
         <v>413</v>
       </c>
       <c r="Q12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="S12" s="13">
         <v>301</v>
@@ -2255,55 +2255,55 @@
         <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J14" s="11">
-        <v>404</v>
+        <v>151</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M14" s="11">
         <v>412</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="O14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="11">
-        <v>413</v>
-      </c>
       <c r="Q14" s="11" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="S14" s="11">
         <v>301</v>
@@ -2315,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="12">
-        <v>203</v>
+        <v>410</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -2370,19 +2370,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="13">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2403,19 +2403,19 @@
         <v>412</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="S15" s="13">
         <v>301</v>
@@ -2479,22 +2479,22 @@
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="13">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="13">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2503,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="13">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>62</v>
@@ -2515,31 +2515,25 @@
         <v>412</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="P16" s="13">
         <v>413</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" s="13">
-        <v>301</v>
-      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -2601,7 +2595,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2667,31 +2661,25 @@
         <v>101</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11">
-        <v>123</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="11">
-        <v>202</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J18" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2709,13 +2697,13 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -2783,7 +2771,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="13">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2841,32 +2829,44 @@
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13">
         <v>104</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="J20" s="13">
-        <v>206</v>
+        <v>404</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="13">
+        <v>413</v>
+      </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -2929,17 +2929,23 @@
     <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="15">
         <v>104</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="15">
+        <v>152</v>
+      </c>
       <c r="H21" s="15" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
